--- a/src/main/resources/bank/全体党员学习学习“十九大”精神和党纪党规应知应会题.xlsx
+++ b/src/main/resources/bank/全体党员学习学习“十九大”精神和党纪党规应知应会题.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\master\git\exam\src\main\resources\bank\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28455" windowHeight="12045" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="28455" windowHeight="12045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="三选一" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="385">
   <si>
     <t>题号</t>
   </si>
@@ -42,437 +42,6 @@
     <t>正确答案</t>
   </si>
   <si>
-    <t>A  2015年10月18日</t>
-  </si>
-  <si>
-    <t>B  2015年10月21日</t>
-  </si>
-  <si>
-    <t>C  2016年1月1日</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B 2015年10月21日</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A  “三个必须”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B  “四个必须” </t>
-  </si>
-  <si>
-    <t>C  “五个必须”</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>A  8</t>
-  </si>
-  <si>
-    <t>B 6</t>
-  </si>
-  <si>
-    <t>C  4</t>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  领导廉洁从政规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  党员领导干部廉洁自律规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  领导干部廉洁自律规范</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  自觉提升思想道德境界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  自觉保持人民公仆本色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  自觉维护人民根本利益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  自觉保持人民公仆本色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  自觉提升思想道德境界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 廉洁从政</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 廉洁用权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 廉洁修身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  廉洁齐家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  廉洁修身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  廉洁用权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  中国共产党章程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  中国共产党廉洁自律准则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  中国共产党纪律处分条例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  公平</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  公开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A 保留 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  公正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 中止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  一年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  一年半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  二年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 一年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 二年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  二年半</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A 暂时保留 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  视情况而定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 自然撤销</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  从重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  从重或加重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  加重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A  合并处理 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  分别处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  并案处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A  从重 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  加重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  处分较重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  处分较轻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  自由裁量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  应当取消其预备党员资格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  给予警告处分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  可以保留预备党员资格，党组织应当对其批评教育或者延长预备期。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  损害党、国家和人民利益的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  影响国家利益的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  影响人民利益的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  提出建议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">B  下达命令 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  作出指示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  中止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  终止</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  主要领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  直接领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  重要领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  重要领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">B  直接责任 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  次要领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  经济利益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  政治利益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  其他利益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  直接责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  主要领导责任</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  一个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  二个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  六个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  政治纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  组织纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  工作纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  留党察看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  撤销党内职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  开除党籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A  组织纪律 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  政治纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  廉洁纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  议事规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">B  行政监察法 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  行政诉讼法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  组织纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A  三个月 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  六个月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  一年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  开除党籍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  留党察看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  撤销党内职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  外事、机要、军事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  经济、学术、机要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  学术、外事、军事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  工作纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  群众纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A  生活纪律</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>答案3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -637,277 +206,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 五位一体  四个全面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 四位一体  五个全面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 五个全面  四位一体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 四个全面  五位一体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>彻新发展理念，建设现代化经济体系，必须坚持质量第一、效益优先，以___为主线。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 转变发展方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 优化经济结构</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 供给侧结构性改革</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 转换增长动力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>___ 是中国特色社会主义的本质要求和重要保障。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 全面依法治国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 全面从严治党</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 全面发展经济</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 全面可持续发展</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>新时代中国特色社会主义思想，明确坚持和发展中国特色社会主义，总任务是实现社会主义现代化和中华民族伟大复兴，在全国建成小康社会的基础上，分___在本世纪中叶建成富强民主文明和谐美丽的社会主义现代化强国。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B 三步走</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 四步走</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 五步走</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 两步走</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>树立___是信心战斗力的思想，推进重大技术创新、自主创新，加强军事人才培养体系建设，建设创新型人民军队。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 创新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 科技</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C 人才 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>军队是准备打仗的，一切工作都必须坚持___标准，向能打仗、打胜仗聚集</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B 斗争力</t>
-  </si>
-  <si>
-    <t>C 战争力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 硬实力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 战斗力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>解决台湾问题、实现祖国完全统一，是全体中华儿女___，是中华民族___所在。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B 共同愿望 本质利益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 一对愿望 本质利益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 共同愿望 根本利益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A 一致愿望 根本利益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>　　　是两岸关系的政治基础。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A “九二共识”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 反对“台独”</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 一个中国原则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 和平统一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>要尊崇党章，严格执行新形势下党内政治生活若干准则，增强党内政治生活的　　　　。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 政治性、时代性、原则性、战斗性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 思想性、政治性、时代性、原则性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 政治性、思想性、时代性、原则性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 政治性、思想性、时代性、战斗性</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>坚决防止和反对_____，坚决防止和反对宗派主义、圈子文化、码头文化，坚决反对搞两面派、做两面人。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 个人主义、享乐主义、自由主义、本位主义、好人主义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 个人主义、分散主义、山头主义、本位主义、好人主义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 个人主义、分散主义、自由主义、本位主义、好人主义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 个人主义、分散主义、自由主义、本位主义、享乐主义</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>要以提升　　　为重点，突出政治功能，把企业、农村、机关、学校、科研院所、街道社区、社会组织等基层党组织建设成为宣传党的主张、贯彻党的决定、领导基层治理、团结动员群众、推动改革发展的坚强战斗堡垒。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 凝聚力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 领导力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 组织力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 战斗力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>要坚持无禁区、全覆盖、零容忍，坚持　　　，坚持受贿行贿一起查，坚决防止党内形成利益集团。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 重预防、强高压、长震摄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 重遏制、不减压、长震摄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 重遏制、强高压、长震摄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 重遏制、强高压、长</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>　　　是实现社会主义现代化、创造人民美好生活的必由之路。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 中国特色社会主义道路</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 中国特色社会主义理论体系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 中国特色社会主义制度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 中国特色社会主义文化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>　　　是当代中国发展进步的根本制度保障。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -924,558 +270,106 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 党的自我监督 舆论监督</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 党的自我监 督群众监督</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 党的自我监督 司法监督</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 的自我监督 民主监督</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>党员领导干部廉洁自律规范有____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 廉洁从政，自觉保持人民公仆本色</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 廉洁用权，自觉维护人民根本利益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 廉洁修身，自觉提升思想道德境界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 廉洁齐家，自觉带头树立良好家风</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>党员廉洁自律规范有____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 坚持公私分明，先公后私，克己奉公</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 坚持崇廉拒腐，清白做人，干净做事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 坚持尚俭戒奢，艰苦朴素，勤俭节约</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 坚持吃苦在前，享受在后，甘于奉献</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>收受可能影响公正执行公务的____等，违反了党的廉洁纪律。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  礼品</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  礼金</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  公务卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  消费</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>党员干部的____不实际工作而获取薪酬或者虽实际工作但领取明显超出同职级标准薪酬，党员干部知情未予纠正的，情节较重的，给予撤销党内职务或者留党察看处分。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">A  配偶 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  子女及其配偶</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  同事</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  父母</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>党的纪律处分工作应当坚持的原则有：党要管党、从严治党；党纪面前一律平等；____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">A  公平公开公正 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  实事求是</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  民主集中制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  惩前毖后、治病救人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BCD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对党员的纪律处分种类有警告、严重警告、____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  撤销党内职务</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  留党察看</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  开除党籍</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  开除公职</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>对严重违犯党纪的党组织的纪律处理措施有</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  改组</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  解散</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">C  撤销 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  警告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>可以从轻或者减轻处分的情形有：主动交代本人应当受到党纪处分的问题的；____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  检举同案人或者其他人应当受到党纪处分或者法律追究的问题，经查证属实的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  主动挽回损失、消除不良影响或者有效阻止危害结果发生的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  主动上交违纪所得的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  有其他立功表现的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>根据案件的特殊情况，____，对违纪党员也可以在《中国共产党纪律处分条例》规定的处分幅度以外减轻处分。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  由中央纪委决定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  或者经省（部）级纪委（不含副省级市纪委）决定并呈报中央纪委批准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  由党委决定</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  或者经纪委决定并呈报党委批准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>有下列____情形之一的，应当从重或者加重处分。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  在纪律集中整饬过程中，不收敛、不收手的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  强迫、唆使他人违纪的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  串供或者伪造、销毁、转移、隐匿证据的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  《中国共产党纪律处分条例》另有规定的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>党员受留党察看处分期间，没有____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  表决权</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  选举权</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  被选举权</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  知情权</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>留党察看处分，分为____。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A  留党察看半年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B  留党察看一年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C  留党察看二年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D  留党察看三年</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实施共建“一带一路”倡议，发起创办亚洲基础设施投资银行，设立丝路基金，举办首届“一带一路”国际合作高峰论坛、亚太经合组织领导人非正式会议、二十国集团领导人___峰会、金砖国家领导人___会晤、亚信峰会。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 北京</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 南京</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 杭州</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 厦门</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>深刻认识党面临的　　　　　尖锐性和严峻性，坚持问题导向，保持战略定力，推动全面从严治党纵深发展。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 精神懈怠危险，能力不足危险，脱离群众危险，消极腐败危险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 精神懈怠危险，封闭僵化危险，脱离群众危险，消极腐败危险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 精神懈怠危险，能力不足危险，官僚主义危险，消极腐败危险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 精神懈怠危险，能力不足危险，脱离群众危险，腐化堕落危险</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>坚持反腐败无禁区、全覆盖、零容忍，坚定不移“打虎”、“拍蝇”、“猎狐”， ___的目标初步实现，___的笼子越扎越牢，___的堤坝正在构筑，反腐败斗争压倒性态势已经形成并巩固发展。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 不敢腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 不能腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 不想腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 不会腐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>引导应对气候变化国际合作,成为全球生态文明建设的重要____、 ____ 、___。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 参与者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 贡献者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 引领者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 领导者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>实施乡村振兴战略。____问题是关系国计民生的根本性问题，必须始终把解决好三农问题，作为全党工作重中之重。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 农业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">B 农村 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 农民</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 农田</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>提高就业质量和人民收入水平,鼓励勤劳守法致富就要___。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 扩大中等收入群体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 增加低收入者收入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 调节过高收入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 取缔非法收入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>加强社会治理制度建设,晚上党委领导、政府负责、社会协同、公众参与、法治保障的社会治理体系，提高社会治理______水平。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 社会化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 法治化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 智能化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 专业化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>必须坚持、___、___、____为主的方针,形成节约资源和保护环境的空间格局、产业结构、生产方式、生活方式，还自然以宁静、和谐、美丽。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 事先预防</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 节约优先</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 保护优先</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 自然恢复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>提高污染排放标准,强化排污者责任,健全、___、___、___等制度。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 环保信用评价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 污染企业备案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 信息强制性披露</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 严惩重罚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>完成___ 、___、 ___，三条控制线划定工作。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 生态保护红线</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 永久基本农田</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 城镇开发边界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 国土绿化面积</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>青年兴则国家兴,青年强则国家强。青年一代、___、___、___,国家就有前途，民族就有希望。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 有品德</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 有理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C 有本领</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D 有担当</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>_____和_____，是中国共产党人的精神支柱和政治灵魂，也是保持党的团结统一的思想基础。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A 新时代中国特色社会主义共同理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B共产主义远大理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C共产主义崇高理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D中国特色社会主义共同理想</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>适应世界新军事革命发展趋势和国家安全需求，提高建设质量和效益，确保到二0二0年基本实现___，___建设取得重大进展，___有大的提升。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">A现代化 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B机械化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>C信息化</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>D战略能力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>《中国共产党廉洁自律准则》是党执政以来第一部坚持正面倡导、面向全体党员的规范全党廉洁自律工作的重要基础性法规。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1634,12 +528,783 @@
   <si>
     <t>利用职权或者职务上的影响操办婚丧喜庆事宜，在社会上造成不良影响，违反了党的生活纪律。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年10月18日</t>
+  </si>
+  <si>
+    <t>2015年10月21日</t>
+  </si>
+  <si>
+    <t>2016年1月1日</t>
+  </si>
+  <si>
+    <t>“三个必须”</t>
+  </si>
+  <si>
+    <t>“四个必须”</t>
+  </si>
+  <si>
+    <t>“五个必须”</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>领导廉洁从政规范</t>
+  </si>
+  <si>
+    <t>党员领导干部廉洁自律规范</t>
+  </si>
+  <si>
+    <t>领导干部廉洁自律规范</t>
+  </si>
+  <si>
+    <t>自觉提升思想道德境界</t>
+  </si>
+  <si>
+    <t>自觉维护人民根本利益</t>
+  </si>
+  <si>
+    <t>自觉保持人民公仆本色</t>
+  </si>
+  <si>
+    <t>廉洁从政</t>
+  </si>
+  <si>
+    <t>廉洁用权</t>
+  </si>
+  <si>
+    <t>廉洁修身</t>
+  </si>
+  <si>
+    <t>廉洁齐家</t>
+  </si>
+  <si>
+    <t>中国共产党章程</t>
+  </si>
+  <si>
+    <t>中国共产党廉洁自律准则</t>
+  </si>
+  <si>
+    <t>中国共产党纪律处分条例</t>
+  </si>
+  <si>
+    <t>公平</t>
+  </si>
+  <si>
+    <t>公正</t>
+  </si>
+  <si>
+    <t>公开</t>
+  </si>
+  <si>
+    <t>保留</t>
+  </si>
+  <si>
+    <t>终止</t>
+  </si>
+  <si>
+    <t>中止</t>
+  </si>
+  <si>
+    <t>一年</t>
+  </si>
+  <si>
+    <t>一年半</t>
+  </si>
+  <si>
+    <t>二年</t>
+  </si>
+  <si>
+    <t>二年半</t>
+  </si>
+  <si>
+    <t>暂时保留</t>
+  </si>
+  <si>
+    <t>自然撤销</t>
+  </si>
+  <si>
+    <t>视情况而定</t>
+  </si>
+  <si>
+    <t>加重</t>
+  </si>
+  <si>
+    <t>从重</t>
+  </si>
+  <si>
+    <t>从重或加重</t>
+  </si>
+  <si>
+    <t>合并处理</t>
+  </si>
+  <si>
+    <t>分别处理</t>
+  </si>
+  <si>
+    <t>并案处理</t>
+  </si>
+  <si>
+    <t>不变</t>
+  </si>
+  <si>
+    <t>处分较重</t>
+  </si>
+  <si>
+    <t>处分较轻</t>
+  </si>
+  <si>
+    <t>自由裁量</t>
+  </si>
+  <si>
+    <t>应当取消其预备党员资格</t>
+  </si>
+  <si>
+    <t>给予警告处分</t>
+  </si>
+  <si>
+    <t>可以保留预备党员资格，党组织应当对其批评教育或者延长预备期。</t>
+  </si>
+  <si>
+    <t>损害党、国家和人民利益的</t>
+  </si>
+  <si>
+    <t>影响国家利益的</t>
+  </si>
+  <si>
+    <t>影响人民利益的</t>
+  </si>
+  <si>
+    <t>提出建议</t>
+  </si>
+  <si>
+    <t>下达命令</t>
+  </si>
+  <si>
+    <t>作出指示</t>
+  </si>
+  <si>
+    <t>主要领导责任</t>
+  </si>
+  <si>
+    <t>直接领导责任</t>
+  </si>
+  <si>
+    <t>重要领导责任</t>
+  </si>
+  <si>
+    <t>直接责任</t>
+  </si>
+  <si>
+    <t>次要领导责任</t>
+  </si>
+  <si>
+    <t>经济利益</t>
+  </si>
+  <si>
+    <t>政治利益</t>
+  </si>
+  <si>
+    <t>其他利益</t>
+  </si>
+  <si>
+    <t>一个月</t>
+  </si>
+  <si>
+    <t>二个月</t>
+  </si>
+  <si>
+    <t>六个月</t>
+  </si>
+  <si>
+    <t>政治纪律</t>
+  </si>
+  <si>
+    <t>组织纪律</t>
+  </si>
+  <si>
+    <t>工作纪律</t>
+  </si>
+  <si>
+    <t>留党察看</t>
+  </si>
+  <si>
+    <t>撤销党内职务</t>
+  </si>
+  <si>
+    <t>开除党籍</t>
+  </si>
+  <si>
+    <t>廉洁纪律</t>
+  </si>
+  <si>
+    <t>议事规则</t>
+  </si>
+  <si>
+    <t>行政监察法</t>
+  </si>
+  <si>
+    <t>行政诉讼法</t>
+  </si>
+  <si>
+    <t>三个月</t>
+  </si>
+  <si>
+    <t>外事、机要、军事</t>
+  </si>
+  <si>
+    <t>经济、学术、机要</t>
+  </si>
+  <si>
+    <t>学术、外事、军事</t>
+  </si>
+  <si>
+    <t>群众纪律</t>
+  </si>
+  <si>
+    <t>生活纪律</t>
+  </si>
+  <si>
+    <t>五位一体四个全面</t>
+  </si>
+  <si>
+    <t>四位一体五个全面</t>
+  </si>
+  <si>
+    <t>五个全面四位一体</t>
+  </si>
+  <si>
+    <t>四个全面五位一体</t>
+  </si>
+  <si>
+    <t>转变发展方式</t>
+  </si>
+  <si>
+    <t>优化经济结构</t>
+  </si>
+  <si>
+    <t>供给侧结构性改革</t>
+  </si>
+  <si>
+    <t>转换增长动力</t>
+  </si>
+  <si>
+    <t>全面依法治国</t>
+  </si>
+  <si>
+    <t>全面从严治党</t>
+  </si>
+  <si>
+    <t>全面发展经济</t>
+  </si>
+  <si>
+    <t>全面可持续发展</t>
+  </si>
+  <si>
+    <t>两步走</t>
+  </si>
+  <si>
+    <t>三步走</t>
+  </si>
+  <si>
+    <t>四步走</t>
+  </si>
+  <si>
+    <t>五步走</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>科技</t>
+  </si>
+  <si>
+    <t>人才</t>
+  </si>
+  <si>
+    <t>技术</t>
+  </si>
+  <si>
+    <t>战斗力</t>
+  </si>
+  <si>
+    <t>斗争力</t>
+  </si>
+  <si>
+    <t>战争力</t>
+  </si>
+  <si>
+    <t>硬实力</t>
+  </si>
+  <si>
+    <t>一致愿望根本利益</t>
+  </si>
+  <si>
+    <t>共同愿望本质利益</t>
+  </si>
+  <si>
+    <t>一对愿望本质利益</t>
+  </si>
+  <si>
+    <t>共同愿望根本利益</t>
+  </si>
+  <si>
+    <t>“九二共识”</t>
+  </si>
+  <si>
+    <t>反对“台独”</t>
+  </si>
+  <si>
+    <t>一个中国原则</t>
+  </si>
+  <si>
+    <t>和平统一</t>
+  </si>
+  <si>
+    <t>政治性、时代性、原则性、战斗性</t>
+  </si>
+  <si>
+    <t>思想性、政治性、时代性、原则性</t>
+  </si>
+  <si>
+    <t>政治性、思想性、时代性、原则性</t>
+  </si>
+  <si>
+    <t>政治性、思想性、时代性、战斗性</t>
+  </si>
+  <si>
+    <t>个人主义、享乐主义、自由主义、本位主义、好人主义</t>
+  </si>
+  <si>
+    <t>个人主义、分散主义、山头主义、本位主义、好人主义</t>
+  </si>
+  <si>
+    <t>个人主义、分散主义、自由主义、本位主义、好人主义</t>
+  </si>
+  <si>
+    <t>个人主义、分散主义、自由主义、本位主义、享乐主义</t>
+  </si>
+  <si>
+    <t>凝聚力</t>
+  </si>
+  <si>
+    <t>领导力</t>
+  </si>
+  <si>
+    <t>组织力</t>
+  </si>
+  <si>
+    <t>重预防、强高压、长震摄</t>
+  </si>
+  <si>
+    <t>重遏制、强高压、长震摄</t>
+  </si>
+  <si>
+    <t>重遏制、不减压、长震摄</t>
+  </si>
+  <si>
+    <t>重遏制、强高压、长</t>
+  </si>
+  <si>
+    <t>中国特色社会主义道路</t>
+  </si>
+  <si>
+    <t>中国特色社会主义理论体系</t>
+  </si>
+  <si>
+    <t>中国特色社会主义制度</t>
+  </si>
+  <si>
+    <t>中国特色社会主义文化</t>
+  </si>
+  <si>
+    <t>党的自我监督舆论监督</t>
+  </si>
+  <si>
+    <t>党的自我监督群众监督</t>
+  </si>
+  <si>
+    <t>党的自我监督司法监督</t>
+  </si>
+  <si>
+    <t>的自我监督民主监督</t>
+  </si>
+  <si>
+    <t>廉洁从政，自觉保持人民公仆本色</t>
+  </si>
+  <si>
+    <t>廉洁用权，自觉维护人民根本利益</t>
+  </si>
+  <si>
+    <t>廉洁修身，自觉提升思想道德境界</t>
+  </si>
+  <si>
+    <t>廉洁齐家，自觉带头树立良好家风</t>
+  </si>
+  <si>
+    <t>坚持公私分明，先公后私，克己奉公</t>
+  </si>
+  <si>
+    <t>坚持崇廉拒腐，清白做人，干净做事</t>
+  </si>
+  <si>
+    <t>坚持尚俭戒奢，艰苦朴素，勤俭节约</t>
+  </si>
+  <si>
+    <t>坚持吃苦在前，享受在后，甘于奉献</t>
+  </si>
+  <si>
+    <t>礼品</t>
+  </si>
+  <si>
+    <t>礼金</t>
+  </si>
+  <si>
+    <t>公务卡</t>
+  </si>
+  <si>
+    <t>消费</t>
+  </si>
+  <si>
+    <t>配偶</t>
+  </si>
+  <si>
+    <t>子女及其配偶</t>
+  </si>
+  <si>
+    <t>同事</t>
+  </si>
+  <si>
+    <t>父母</t>
+  </si>
+  <si>
+    <t>公平公开公正</t>
+  </si>
+  <si>
+    <t>实事求是</t>
+  </si>
+  <si>
+    <t>民主集中制</t>
+  </si>
+  <si>
+    <t>惩前毖后、治病救人</t>
+  </si>
+  <si>
+    <t>开除公职</t>
+  </si>
+  <si>
+    <t>改组</t>
+  </si>
+  <si>
+    <t>解散</t>
+  </si>
+  <si>
+    <t>撤销</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>检举同案人或者其他人应当受到党纪处分或者法律追究的问题，经查证属实的</t>
+  </si>
+  <si>
+    <t>主动挽回损失、消除不良影响或者有效阻止危害结果发生的</t>
+  </si>
+  <si>
+    <t>主动上交违纪所得的</t>
+  </si>
+  <si>
+    <t>有其他立功表现的</t>
+  </si>
+  <si>
+    <t>由中央纪委决定</t>
+  </si>
+  <si>
+    <t>或者经省（部）级纪委（不含副省级市纪委）决定并呈报中央纪委批准</t>
+  </si>
+  <si>
+    <t>由党委决定</t>
+  </si>
+  <si>
+    <t>或者经纪委决定并呈报党委批准</t>
+  </si>
+  <si>
+    <t>在纪律集中整饬过程中，不收敛、不收手的</t>
+  </si>
+  <si>
+    <t>强迫、唆使他人违纪的</t>
+  </si>
+  <si>
+    <t>串供或者伪造、销毁、转移、隐匿证据的</t>
+  </si>
+  <si>
+    <t>《中国共产党纪律处分条例》另有规定的</t>
+  </si>
+  <si>
+    <t>表决权</t>
+  </si>
+  <si>
+    <t>选举权</t>
+  </si>
+  <si>
+    <t>被选举权</t>
+  </si>
+  <si>
+    <t>知情权</t>
+  </si>
+  <si>
+    <t>留党察看半年</t>
+  </si>
+  <si>
+    <t>留党察看一年</t>
+  </si>
+  <si>
+    <t>留党察看二年</t>
+  </si>
+  <si>
+    <t>留党察看三年</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>杭州</t>
+  </si>
+  <si>
+    <t>厦门</t>
+  </si>
+  <si>
+    <t>精神懈怠危险，能力不足危险，脱离群众危险，消极腐败危险</t>
+  </si>
+  <si>
+    <t>精神懈怠危险，封闭僵化危险，脱离群众危险，消极腐败危险</t>
+  </si>
+  <si>
+    <t>精神懈怠危险，能力不足危险，官僚主义危险，消极腐败危险</t>
+  </si>
+  <si>
+    <t>精神懈怠危险，能力不足危险，脱离群众危险，腐化堕落危险</t>
+  </si>
+  <si>
+    <t>不敢腐</t>
+  </si>
+  <si>
+    <t>不能腐</t>
+  </si>
+  <si>
+    <t>不想腐</t>
+  </si>
+  <si>
+    <t>不会腐</t>
+  </si>
+  <si>
+    <t>参与者</t>
+  </si>
+  <si>
+    <t>贡献者</t>
+  </si>
+  <si>
+    <t>引领者</t>
+  </si>
+  <si>
+    <t>领导者</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>农村</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>农田</t>
+  </si>
+  <si>
+    <t>扩大中等收入群体</t>
+  </si>
+  <si>
+    <t>增加低收入者收入</t>
+  </si>
+  <si>
+    <t>调节过高收入</t>
+  </si>
+  <si>
+    <t>取缔非法收入</t>
+  </si>
+  <si>
+    <t>社会化</t>
+  </si>
+  <si>
+    <t>法治化</t>
+  </si>
+  <si>
+    <t>智能化</t>
+  </si>
+  <si>
+    <t>专业化</t>
+  </si>
+  <si>
+    <t>事先预防</t>
+  </si>
+  <si>
+    <t>节约优先</t>
+  </si>
+  <si>
+    <t>保护优先</t>
+  </si>
+  <si>
+    <t>自然恢复</t>
+  </si>
+  <si>
+    <t>环保信用评价</t>
+  </si>
+  <si>
+    <t>污染企业备案</t>
+  </si>
+  <si>
+    <t>信息强制性披露</t>
+  </si>
+  <si>
+    <t>严惩重罚</t>
+  </si>
+  <si>
+    <t>生态保护红线</t>
+  </si>
+  <si>
+    <t>永久基本农田</t>
+  </si>
+  <si>
+    <t>城镇开发边界</t>
+  </si>
+  <si>
+    <t>国土绿化面积</t>
+  </si>
+  <si>
+    <t>有品德</t>
+  </si>
+  <si>
+    <t>有理想</t>
+  </si>
+  <si>
+    <t>有本领</t>
+  </si>
+  <si>
+    <t>有担当</t>
+  </si>
+  <si>
+    <t>新时代中国特色社会主义共同理想</t>
+  </si>
+  <si>
+    <t>共产主义远大理想</t>
+  </si>
+  <si>
+    <t>共产主义崇高理想</t>
+  </si>
+  <si>
+    <t>中国特色社会主义共同理想</t>
+  </si>
+  <si>
+    <t>现代化</t>
+  </si>
+  <si>
+    <t>机械化</t>
+  </si>
+  <si>
+    <t>信息化</t>
+  </si>
+  <si>
+    <t>战略能力</t>
+  </si>
+  <si>
+    <t>廉洁从政，自觉保持人民公仆本色@廉洁用权，自觉维护人民根本利益@廉洁修身，自觉提升思想道德境界@廉洁齐家，自觉带头树立良好家风</t>
+  </si>
+  <si>
+    <t>坚持公私分明，先公后私，克己奉公@坚持崇廉拒腐，清白做人，干净做事@坚持尚俭戒奢，艰苦朴素，勤俭节约@坚持吃苦在前，享受在后，甘于奉献</t>
+  </si>
+  <si>
+    <t>礼品@礼金@消费</t>
+  </si>
+  <si>
+    <t>配偶@子女及其配偶</t>
+  </si>
+  <si>
+    <t>实事求是@民主集中制@惩前毖后、治病救人</t>
+  </si>
+  <si>
+    <t>撤销党内职务@留党察看@开除党籍</t>
+  </si>
+  <si>
+    <t>改组@解散</t>
+  </si>
+  <si>
+    <t>检举同案人或者其他人应当受到党纪处分或者法律追究的问题，经查证属实的@主动挽回损失、消除不良影响或者有效阻止危害结果发生的@主动上交违纪所得的@有其他立功表现的</t>
+  </si>
+  <si>
+    <t>由中央纪委决定@或者经省（部）级纪委（不含副省级市纪委）决定并呈报中央纪委批准</t>
+  </si>
+  <si>
+    <t>在纪律集中整饬过程中，不收敛、不收手的@强迫、唆使他人违纪的@《中国共产党纪律处分条例》另有规定的</t>
+  </si>
+  <si>
+    <t>表决权@选举权@被选举权</t>
+  </si>
+  <si>
+    <t>留党察看一年@留党察看二年</t>
+  </si>
+  <si>
+    <t>杭州@厦门</t>
+  </si>
+  <si>
+    <t>不敢腐@不能腐@不想腐</t>
+  </si>
+  <si>
+    <t>参与者@贡献者@引领者</t>
+  </si>
+  <si>
+    <t>农业@农村@农民</t>
+  </si>
+  <si>
+    <t>扩大中等收入群体@增加低收入者收入@调节过高收入@取缔非法收入</t>
+  </si>
+  <si>
+    <t>社会化@法治化@智能化@专业化</t>
+  </si>
+  <si>
+    <t>节约优先@保护优先@自然恢复</t>
+  </si>
+  <si>
+    <t>环保信用评价@信息强制性披露@严惩重罚</t>
+  </si>
+  <si>
+    <t>生态保护红线@永久基本农田@城镇开发边界</t>
+  </si>
+  <si>
+    <t>有理想@有本领@有担当</t>
+  </si>
+  <si>
+    <t>共产主义远大理想@中国特色社会主义共同理想</t>
+  </si>
+  <si>
+    <t>机械化@信息化@战略能力</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2008,11 +1673,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2048,19 +1713,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2068,19 +1733,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>120</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2088,19 +1753,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2108,19 +1773,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2128,19 +1793,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2148,19 +1813,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2168,19 +1833,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -2188,19 +1853,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -2208,19 +1873,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2228,19 +1893,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2248,19 +1913,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2268,19 +1933,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2288,19 +1953,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -2308,19 +1973,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -2328,19 +1993,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -2348,19 +2013,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -2368,19 +2033,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>167</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -2388,19 +2053,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>27</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -2408,19 +2073,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -2428,19 +2093,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>19</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -2448,19 +2113,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>176</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>27</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -2468,19 +2133,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>27</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -2488,19 +2153,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>154</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -2508,19 +2173,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>27</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -2528,19 +2193,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>27</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -2548,19 +2213,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -2568,19 +2233,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -2588,19 +2253,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>91</v>
+        <v>192</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -2608,19 +2273,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>147</v>
+        <v>36</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>92</v>
+        <v>193</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>27</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -2628,19 +2293,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>95</v>
+        <v>196</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>198</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>19</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -2648,19 +2313,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>149</v>
+        <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>98</v>
+        <v>194</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>23</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -2668,19 +2333,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>27</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -2688,19 +2353,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>99</v>
+        <v>193</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>27</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -2708,19 +2373,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>105</v>
+        <v>203</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -2728,19 +2393,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>42</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>109</v>
+        <v>196</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>19</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -2748,19 +2413,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>111</v>
+        <v>204</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>27</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -2768,19 +2433,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>155</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>114</v>
+        <v>195</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -2788,19 +2453,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>116</v>
+        <v>208</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -2811,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2841,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2855,22 +2520,22 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -2878,22 +2543,22 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>166</v>
+        <v>215</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>167</v>
+        <v>216</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -2901,22 +2566,22 @@
         <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -2924,22 +2589,22 @@
         <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>49</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>176</v>
+        <v>223</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>224</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -2947,22 +2612,22 @@
         <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -2970,22 +2635,22 @@
         <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>162</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -2993,22 +2658,22 @@
         <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3016,22 +2681,22 @@
         <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -3039,45 +2704,45 @@
         <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>202</v>
+        <v>241</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>48</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>168</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3085,22 +2750,22 @@
         <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>211</v>
+        <v>56</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>212</v>
+        <v>249</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>213</v>
+        <v>250</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3108,22 +2773,22 @@
         <v>50</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>184</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3131,22 +2796,22 @@
         <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -3154,22 +2819,22 @@
         <v>52</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>168</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -3177,22 +2842,22 @@
         <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3200,22 +2865,22 @@
         <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3223,22 +2888,22 @@
         <v>55</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>184</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3249,11 +2914,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3272,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -3286,22 +2951,22 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -3309,22 +2974,22 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>240</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>239</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -3332,22 +2997,22 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>250</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -3355,22 +3020,22 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>251</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -3378,22 +3043,22 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -3401,22 +3066,22 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>263</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>266</v>
+        <v>198</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>268</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -3424,22 +3089,22 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>269</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>256</v>
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -3447,22 +3112,22 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>274</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>239</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -3470,22 +3135,22 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>279</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>256</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -3493,22 +3158,22 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>284</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>250</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
@@ -3516,22 +3181,22 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>289</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>268</v>
+        <v>371</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
@@ -3539,22 +3204,22 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>294</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>299</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -3562,22 +3227,22 @@
         <v>68</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
@@ -3585,22 +3250,22 @@
         <v>69</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>306</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>162</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
@@ -3608,22 +3273,22 @@
         <v>70</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
@@ -3631,22 +3296,22 @@
         <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>316</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>268</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
@@ -3654,22 +3319,22 @@
         <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>268</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
@@ -3677,22 +3342,22 @@
         <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>239</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -3700,22 +3365,22 @@
         <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>331</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>239</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
@@ -3723,7 +3388,7 @@
         <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>337</v>
@@ -3738,7 +3403,7 @@
         <v>340</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>262</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
@@ -3746,22 +3411,22 @@
         <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
@@ -3769,22 +3434,22 @@
         <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="G23" s="2" t="s">
-        <v>268</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
@@ -3792,22 +3457,22 @@
         <v>78</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>356</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>262</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
@@ -3815,22 +3480,22 @@
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>357</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
@@ -3838,22 +3503,22 @@
         <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>363</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>262</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3864,10 +3529,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E18F5BA-4AEC-47F3-A587-11CA273E50A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -3889,7 +3554,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>368</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -3900,7 +3565,7 @@
         <v>82</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>369</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -3911,7 +3576,7 @@
         <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>370</v>
+        <v>90</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3922,7 +3587,7 @@
         <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>371</v>
+        <v>91</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3933,7 +3598,7 @@
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>372</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -3944,7 +3609,7 @@
         <v>86</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>373</v>
+        <v>93</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -3955,7 +3620,7 @@
         <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>374</v>
+        <v>94</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -3966,7 +3631,7 @@
         <v>88</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>375</v>
+        <v>95</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -3977,7 +3642,7 @@
         <v>89</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>376</v>
+        <v>96</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -3988,7 +3653,7 @@
         <v>90</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>377</v>
+        <v>97</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -3999,7 +3664,7 @@
         <v>91</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>378</v>
+        <v>98</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -4010,7 +3675,7 @@
         <v>92</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>379</v>
+        <v>99</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -4021,7 +3686,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>380</v>
+        <v>100</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -4032,7 +3697,7 @@
         <v>94</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>384</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -4043,7 +3708,7 @@
         <v>95</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>381</v>
+        <v>101</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -4054,7 +3719,7 @@
         <v>96</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -4065,7 +3730,7 @@
         <v>97</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>383</v>
+        <v>103</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -4076,7 +3741,7 @@
         <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>385</v>
+        <v>105</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -4087,7 +3752,7 @@
         <v>99</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>386</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -4098,7 +3763,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>387</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -4109,7 +3774,7 @@
         <v>101</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>388</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4120,7 +3785,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>389</v>
+        <v>109</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4131,7 +3796,7 @@
         <v>103</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>390</v>
+        <v>110</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4142,7 +3807,7 @@
         <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>391</v>
+        <v>111</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -4153,7 +3818,7 @@
         <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>392</v>
+        <v>112</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -4164,7 +3829,7 @@
         <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>393</v>
+        <v>113</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -4175,7 +3840,7 @@
         <v>107</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>394</v>
+        <v>114</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -4186,7 +3851,7 @@
         <v>108</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>395</v>
+        <v>115</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -4197,7 +3862,7 @@
         <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>396</v>
+        <v>116</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -4208,7 +3873,7 @@
         <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>397</v>
+        <v>117</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4219,7 +3884,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>398</v>
+        <v>118</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4230,7 +3895,7 @@
         <v>112</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>399</v>
+        <v>119</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4241,7 +3906,7 @@
         <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4252,7 +3917,7 @@
         <v>114</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>401</v>
+        <v>121</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -4263,7 +3928,7 @@
         <v>115</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>402</v>
+        <v>122</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -4274,7 +3939,7 @@
         <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>403</v>
+        <v>123</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4285,7 +3950,7 @@
         <v>117</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>404</v>
+        <v>124</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -4296,7 +3961,7 @@
         <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>405</v>
+        <v>125</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4307,7 +3972,7 @@
         <v>119</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>406</v>
+        <v>126</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -4318,7 +3983,7 @@
         <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>407</v>
+        <v>127</v>
       </c>
       <c r="C41">
         <v>0</v>
